--- a/outputs/growth_curves_by_species.xlsx
+++ b/outputs/growth_curves_by_species.xlsx
@@ -551,7 +551,7 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>44</v>
@@ -560,7 +560,7 @@
         <v>105</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1139,13 +1139,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2247,10 +2247,10 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2485,19 +2485,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>44</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3073,7 +3073,7 @@
         <v>46</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>53</v>
@@ -3082,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3629,7 +3629,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -3638,10 +3638,10 @@
         <v>52</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3980,19 +3980,19 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4811,7 +4811,7 @@
         <v>224</v>
       </c>
       <c r="H2">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8">
